--- a/outputs/steel/diff_with_finishing_rolling_fuel.xlsx
+++ b/outputs/steel/diff_with_finishing_rolling_fuel.xlsx
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="D57">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
       <c r="D91">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="D92">
-        <v>-9.4</v>
+        <v>0.58</v>
       </c>
       <c r="E92">
         <v>10.74155709794662</v>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="D97">
-        <v>257.29</v>
+        <v>267.32</v>
       </c>
       <c r="E97">
         <v>254.6180953226502</v>
